--- a/data/trans_orig/P70B_R2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>62119</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47259</v>
+        <v>47223</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79655</v>
+        <v>81138</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1692857020661228</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1287882925912588</v>
+        <v>0.1286905168841051</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2170752618780774</v>
+        <v>0.2211159298579665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -762,19 +762,19 @@
         <v>42136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31312</v>
+        <v>31628</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53748</v>
+        <v>54066</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1537890626805613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1142830234009274</v>
+        <v>0.1154376970626724</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1961716589105114</v>
+        <v>0.1973319073613461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -783,19 +783,19 @@
         <v>104255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85855</v>
+        <v>86892</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126144</v>
+        <v>125936</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1626612326354083</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1339527430728805</v>
+        <v>0.1355711773994058</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1968136753460763</v>
+        <v>0.1964883359242852</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>304829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287293</v>
+        <v>285810</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>319689</v>
+        <v>319725</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8307142979338773</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7829247381219223</v>
+        <v>0.7788840701420335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8712117074087411</v>
+        <v>0.8713094831158948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>348</v>
@@ -833,19 +833,19 @@
         <v>231848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220236</v>
+        <v>219918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>242672</v>
+        <v>242356</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8462109373194386</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8038283410894885</v>
+        <v>0.8026680926386536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8857169765990722</v>
+        <v>0.8845623029373274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>628</v>
@@ -854,19 +854,19 @@
         <v>536678</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>514789</v>
+        <v>514997</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>555078</v>
+        <v>554041</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8373387673645918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8031863246539236</v>
+        <v>0.8035116640757151</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8660472569271197</v>
+        <v>0.8644288226005943</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>101416</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80364</v>
+        <v>81394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127474</v>
+        <v>123704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1634462879306803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.129517612929643</v>
+        <v>0.1311778854747608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2054420053035372</v>
+        <v>0.1993661505819376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -979,19 +979,19 @@
         <v>66770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54632</v>
+        <v>54555</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81467</v>
+        <v>80680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1508054779716445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1233909126812991</v>
+        <v>0.1232155476949916</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1839995249844351</v>
+        <v>0.1822204249577534</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -1000,19 +1000,19 @@
         <v>168187</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142656</v>
+        <v>142509</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>194363</v>
+        <v>194826</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1581823759509037</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1341701402300573</v>
+        <v>0.134032244422514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1828017594390568</v>
+        <v>0.1832369238309619</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>519070</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493012</v>
+        <v>496782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>540122</v>
+        <v>539092</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8365537120693198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7945579946964627</v>
+        <v>0.8006338494180627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8704823870703569</v>
+        <v>0.8688221145252395</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>500</v>
@@ -1050,19 +1050,19 @@
         <v>375989</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361292</v>
+        <v>362079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>388127</v>
+        <v>388204</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8491945220283555</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8160004750155646</v>
+        <v>0.817779575042247</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8766090873187009</v>
+        <v>0.8767844523050085</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>943</v>
@@ -1071,19 +1071,19 @@
         <v>895058</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>868882</v>
+        <v>868419</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>920589</v>
+        <v>920736</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8418176240490962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8171982405609433</v>
+        <v>0.816763076169038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8658298597699428</v>
+        <v>0.865967755577486</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>51391</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37202</v>
+        <v>37327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69243</v>
+        <v>68725</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1257302512770119</v>
+        <v>0.125730251277012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09101520405659266</v>
+        <v>0.09132210834776872</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1694062814430098</v>
+        <v>0.168138483130879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1196,19 +1196,19 @@
         <v>48559</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38573</v>
+        <v>36637</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61829</v>
+        <v>61610</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1457364588694109</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1157661001542721</v>
+        <v>0.1099573546432017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1855636578724131</v>
+        <v>0.1849059279153066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -1217,19 +1217,19 @@
         <v>99950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82202</v>
+        <v>80087</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122315</v>
+        <v>121117</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1347148072069388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1107942895192949</v>
+        <v>0.1079434861139348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1648587983051704</v>
+        <v>0.1632435307760543</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>357351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>339499</v>
+        <v>340017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>371540</v>
+        <v>371415</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8742697487229878</v>
+        <v>0.8742697487229881</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.83059371855699</v>
+        <v>0.8318615168691211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9089847959434071</v>
+        <v>0.9086778916522318</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>356</v>
@@ -1267,19 +1267,19 @@
         <v>284637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>271367</v>
+        <v>271586</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>294623</v>
+        <v>296559</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8542635411305892</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8144363421275871</v>
+        <v>0.8150940720846935</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8842338998457278</v>
+        <v>0.8900426453567983</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>637</v>
@@ -1288,19 +1288,19 @@
         <v>641988</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619623</v>
+        <v>620821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>659736</v>
+        <v>661851</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8652851927930612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8351412016948295</v>
+        <v>0.8367564692239459</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8892057104807054</v>
+        <v>0.892056513886066</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>64565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49534</v>
+        <v>48320</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84673</v>
+        <v>84479</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.126496901368979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09704733642099257</v>
+        <v>0.09466976845790277</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1658925639094222</v>
+        <v>0.165512886256276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -1413,19 +1413,19 @@
         <v>60112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48734</v>
+        <v>48999</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74267</v>
+        <v>73533</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.135501240113641</v>
+        <v>0.1355012401136409</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1098541555337126</v>
+        <v>0.1104507532551319</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1674093760094697</v>
+        <v>0.1657559111564554</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -1434,19 +1434,19 @@
         <v>124677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105425</v>
+        <v>105580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>147007</v>
+        <v>147274</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1306839088150278</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1105048265970105</v>
+        <v>0.1106666371509567</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1540902202481711</v>
+        <v>0.1543694912934132</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>445844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>425736</v>
+        <v>425930</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>460875</v>
+        <v>462089</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.873503098631021</v>
+        <v>0.8735030986310209</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.834107436090578</v>
+        <v>0.8344871137437242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9029526635790078</v>
+        <v>0.9053302315420974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>515</v>
@@ -1484,19 +1484,19 @@
         <v>383512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369357</v>
+        <v>370091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>394890</v>
+        <v>394625</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.864498759886359</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8325906239905303</v>
+        <v>0.8342440888435451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8901458444662874</v>
+        <v>0.8895492467448683</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>925</v>
@@ -1505,19 +1505,19 @@
         <v>829356</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>807026</v>
+        <v>806759</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>848608</v>
+        <v>848453</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8693160911849721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8459097797518288</v>
+        <v>0.8456305087065868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8894951734029896</v>
+        <v>0.8893333628490434</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>279492</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>241660</v>
+        <v>245215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>313512</v>
+        <v>321784</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1465927778419483</v>
+        <v>0.1465927778419482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1267502103546216</v>
+        <v>0.1286145764652253</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1644365596317376</v>
+        <v>0.1687750049084545</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>279</v>
@@ -1630,19 +1630,19 @@
         <v>217577</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>193195</v>
+        <v>192838</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240450</v>
+        <v>243343</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1456762339920042</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1293518495717249</v>
+        <v>0.129112472161301</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1609910208544946</v>
+        <v>0.1629280920102051</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>510</v>
@@ -1651,19 +1651,19 @@
         <v>497068</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>457920</v>
+        <v>456056</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>541172</v>
+        <v>542405</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1461901730513263</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1346764966090855</v>
+        <v>0.1341283474127893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1591611997971082</v>
+        <v>0.1595239037408558</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1627093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1593073</v>
+        <v>1584801</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1664925</v>
+        <v>1661370</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8534072221580519</v>
+        <v>0.8534072221580518</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8355634403682625</v>
+        <v>0.8312249950915455</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8732497896453784</v>
+        <v>0.8713854235347742</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1719</v>
@@ -1701,19 +1701,19 @@
         <v>1275986</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1253113</v>
+        <v>1250220</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1300368</v>
+        <v>1300725</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8543237660079956</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8390089791455052</v>
+        <v>0.8370719079897947</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8706481504282749</v>
+        <v>0.8708875278386988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3133</v>
@@ -1722,19 +1722,19 @@
         <v>2903080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2858976</v>
+        <v>2857743</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2942228</v>
+        <v>2944092</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8538098269486738</v>
+        <v>0.8538098269486737</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8408388002028917</v>
+        <v>0.8404760962591443</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8653235033909144</v>
+        <v>0.8658716525872107</v>
       </c>
     </row>
     <row r="18">
